--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3625.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3625.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.246786946126378</v>
+        <v>1.724109292030334</v>
       </c>
       <c r="B1">
-        <v>2.118723616404603</v>
+        <v>2.542062997817993</v>
       </c>
       <c r="C1">
-        <v>2.669954800224701</v>
+        <v>3.276809930801392</v>
       </c>
       <c r="D1">
-        <v>3.035751515716518</v>
+        <v>1.232200980186462</v>
       </c>
       <c r="E1">
-        <v>1.906899978820297</v>
+        <v>0.8107597827911377</v>
       </c>
     </row>
   </sheetData>
